--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_419__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_419__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5368,7 +5368,7 @@
                   <c:v>365.4227905273438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>357.4185180664062</c:v>
+                  <c:v>357.4185485839844</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>355.4511108398438</c:v>
@@ -5401,7 +5401,7 @@
                   <c:v>356.5233154296875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357.2863464355469</c:v>
+                  <c:v>357.286376953125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>358.8460693359375</c:v>
@@ -5422,7 +5422,7 @@
                   <c:v>352.1116027832031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>358.67822265625</c:v>
+                  <c:v>358.6782531738281</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>360.7483825683594</c:v>
@@ -5452,7 +5452,7 @@
                   <c:v>363.7052612304688</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>358.5405578613281</c:v>
+                  <c:v>358.5405883789062</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>333.3225402832031</c:v>
@@ -5476,10 +5476,10 @@
                   <c:v>362.5941467285156</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>357.040283203125</c:v>
+                  <c:v>357.0403137207031</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>356.9440612792969</c:v>
+                  <c:v>356.944091796875</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>352.2759704589844</c:v>
@@ -5494,7 +5494,7 @@
                   <c:v>359.5056762695312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>355.2704162597656</c:v>
+                  <c:v>355.2703857421875</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>361.6902465820312</c:v>
@@ -5509,7 +5509,7 @@
                   <c:v>359.5151672363281</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>357.4822387695312</c:v>
+                  <c:v>357.4822692871094</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>353.1505126953125</c:v>
@@ -5578,7 +5578,7 @@
                   <c:v>360.5635681152344</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>357.3027648925781</c:v>
+                  <c:v>357.3027954101562</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>357.6959838867188</c:v>
@@ -5602,7 +5602,7 @@
                   <c:v>336.5655517578125</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>358.8649291992188</c:v>
+                  <c:v>358.8649597167969</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>355.8887939453125</c:v>
@@ -5617,10 +5617,10 @@
                   <c:v>364.1902770996094</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>361.4837646484375</c:v>
+                  <c:v>361.4837951660156</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>358.1489562988281</c:v>
+                  <c:v>358.1489868164062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6338,13 +6350,19 @@
         <v>358.3929138183594</v>
       </c>
       <c r="G3">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>371</v>
+      </c>
+      <c r="R3">
         <v>370</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6364,13 +6382,19 @@
         <v>360.1847839355469</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>370</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>364.3943786621094</v>
       </c>
       <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>371</v>
+      </c>
+      <c r="R5">
         <v>370</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>365.4227905273438</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>370</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6439,16 +6475,22 @@
         <v>357.155</v>
       </c>
       <c r="F7">
-        <v>357.4185180664062</v>
+        <v>357.4185485839844</v>
       </c>
       <c r="G7">
+        <v>371</v>
+      </c>
+      <c r="H7">
+        <v>371</v>
+      </c>
+      <c r="R7">
         <v>370</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>355.4511108398438</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>357.4214172363281</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>341.1596069335938</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>355.1167602539062</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>361.7494812011719</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>359.8157958984375</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>359.8817138671875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>359.4082946777344</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6665,7 +6707,7 @@
         <v>353.962</v>
       </c>
       <c r="F18">
-        <v>357.2863464355469</v>
+        <v>357.286376953125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6805,7 +6847,7 @@
         <v>355.309</v>
       </c>
       <c r="F25">
-        <v>358.67822265625</v>
+        <v>358.6782531738281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7005,7 +7047,7 @@
         <v>356.245</v>
       </c>
       <c r="F35">
-        <v>358.5405578613281</v>
+        <v>358.5405883789062</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7165,7 +7207,7 @@
         <v>337.824</v>
       </c>
       <c r="F43">
-        <v>357.040283203125</v>
+        <v>357.0403137207031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7185,7 +7227,7 @@
         <v>358.337</v>
       </c>
       <c r="F44">
-        <v>356.9440612792969</v>
+        <v>356.944091796875</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7285,7 +7327,7 @@
         <v>358.216</v>
       </c>
       <c r="F49">
-        <v>355.2704162597656</v>
+        <v>355.2703857421875</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7385,7 +7427,7 @@
         <v>359.806</v>
       </c>
       <c r="F54">
-        <v>357.4822387695312</v>
+        <v>357.4822692871094</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7845,7 +7887,7 @@
         <v>357.46</v>
       </c>
       <c r="F77">
-        <v>357.3027648925781</v>
+        <v>357.3027954101562</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8005,7 +8047,7 @@
         <v>355.781</v>
       </c>
       <c r="F85">
-        <v>358.8649291992188</v>
+        <v>358.8649597167969</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8105,7 +8147,7 @@
         <v>358.885</v>
       </c>
       <c r="F90">
-        <v>361.4837646484375</v>
+        <v>361.4837951660156</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8119,7 +8161,7 @@
         <v>358.955</v>
       </c>
       <c r="F91">
-        <v>358.1489562988281</v>
+        <v>358.1489868164062</v>
       </c>
     </row>
     <row r="92" spans="1:6">
